--- a/用例数据/沪银行/兑息/主子股东/测试结果.xlsx
+++ b/用例数据/沪银行/兑息/主子股东/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="269">
   <si>
     <t>EXCHID</t>
   </si>
@@ -314,9 +314,6 @@
     <t>0.0000</t>
   </si>
   <si>
-    <t>8386.730</t>
-  </si>
-  <si>
     <t>0.000</t>
   </si>
   <si>
@@ -356,9 +353,6 @@
     <t>OCCURTIME</t>
   </si>
   <si>
-    <t>20221216000000</t>
-  </si>
-  <si>
     <t>10000</t>
   </si>
   <si>
@@ -743,18 +737,9 @@
     <t>OTHERFEE4</t>
   </si>
   <si>
-    <t>30051998</t>
-  </si>
-  <si>
     <t>005_005_002</t>
   </si>
   <si>
-    <t>20221216235959</t>
-  </si>
-  <si>
-    <t>20221217162414</t>
-  </si>
-  <si>
     <t>CCB1</t>
   </si>
   <si>
@@ -764,9 +749,6 @@
     <t>25.00000000</t>
   </si>
   <si>
-    <t>908320878.870</t>
-  </si>
-  <si>
     <t>A9</t>
   </si>
   <si>
@@ -791,9 +773,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>000007100473</t>
-  </si>
-  <si>
     <t>NONDVP</t>
   </si>
   <si>
@@ -810,6 +789,45 @@
   </si>
   <si>
     <t>705</t>
+  </si>
+  <si>
+    <t>30002374</t>
+  </si>
+  <si>
+    <t>20230209235959</t>
+  </si>
+  <si>
+    <t>20230210084837</t>
+  </si>
+  <si>
+    <t>20230209000000</t>
+  </si>
+  <si>
+    <t>4193.360</t>
+  </si>
+  <si>
+    <t>653160306.930</t>
+  </si>
+  <si>
+    <t>000007125493</t>
+  </si>
+  <si>
+    <t>30002375</t>
+  </si>
+  <si>
+    <t>4193.370</t>
+  </si>
+  <si>
+    <t>-657520663.560</t>
+  </si>
+  <si>
+    <t>00001</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>000007125494</t>
   </si>
 </sst>
 </file>
@@ -1137,13 +1155,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1403,7 +1425,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
@@ -1441,7 +1463,7 @@
         <v>96</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>94</v>
@@ -1462,22 +1484,22 @@
         <v>93</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>96</v>
@@ -1525,94 +1547,94 @@
         <v>93</v>
       </c>
       <c r="AO2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO2" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="BP2" s="1" t="s">
         <v>96</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BS2" s="1" t="s">
         <v>93</v>
@@ -1663,21 +1685,21 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>89</v>
@@ -1701,7 +1723,7 @@
         <v>96</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>98</v>
+        <v>264</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>94</v>
@@ -1722,22 +1744,22 @@
         <v>93</v>
       </c>
       <c r="T3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>96</v>
@@ -1785,94 +1807,94 @@
         <v>93</v>
       </c>
       <c r="AO3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO3" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="BP3" s="1" t="s">
         <v>96</v>
       </c>
       <c r="BQ3" s="1" t="s">
-        <v>98</v>
+        <v>264</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BS3" s="1" t="s">
         <v>93</v>
@@ -1923,49 +1945,49 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1975,17 +1997,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CA24"/>
+  <dimension ref="A1:CA20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2222,9 +2252,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>259</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>87</v>
@@ -2254,16 +2284,16 @@
         <v>93</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>95</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>94</v>
@@ -2284,25 +2314,25 @@
         <v>93</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="AA2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>96</v>
@@ -2335,89 +2365,89 @@
         <v>93</v>
       </c>
       <c r="AL2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AN2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BM2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="BK2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="BN2" s="1" t="s">
         <v>93</v>
       </c>
@@ -2461,24 +2491,24 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>259</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>89</v>
@@ -2493,16 +2523,16 @@
         <v>93</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>95</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>98</v>
+        <v>264</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>94</v>
@@ -2523,25 +2553,25 @@
         <v>93</v>
       </c>
       <c r="U3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Z3" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="AA3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>96</v>
@@ -2574,89 +2604,89 @@
         <v>93</v>
       </c>
       <c r="AL3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AN3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
+      <c r="BK3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="BM3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="BK3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="BN3" s="1" t="s">
         <v>93</v>
       </c>
@@ -2700,27 +2730,23 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2731,48 +2757,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
@@ -2790,393 +2819,393 @@
         <v>23</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AS1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="DJ1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="DK1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="DM1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="EC1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EG1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="EI1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="EH1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="EI1" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>87</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>88</v>
@@ -3185,7 +3214,7 @@
         <v>90</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>89</v>
@@ -3197,85 +3226,85 @@
         <v>92</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="V2" s="1" t="s">
         <v>93</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>111</v>
+        <v>259</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>88</v>
@@ -3284,22 +3313,22 @@
         <v>90</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>96</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>93</v>
@@ -3311,46 +3340,46 @@
         <v>86</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>93</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BM2" s="1" t="s">
         <v>93</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>93</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="BW2" s="1" t="s">
         <v>86</v>
@@ -3362,149 +3391,477 @@
         <v>86</v>
       </c>
       <c r="BZ2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CR2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CV2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="DC2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DE2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="DF2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DG2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="DJ2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="DK2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DL2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DM2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DN2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DO2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DP2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DQ2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DR2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DS2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DT2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DU2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DV2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DW2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DX2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DY2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="EC2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="ED2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="EE2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="EG2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="EH2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="CA2" s="1" t="s">
+      <c r="EI2" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="CB2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="CJ2" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="BW3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CG3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="CJ3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="CK3" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="CL3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CR3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="CT3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CV3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="DA3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="DC3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DD3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DE3" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="CK2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="CL2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="CR2" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="CT2" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="CV2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="DA2" s="1" t="s">
+      <c r="DF3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DG3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="DJ3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="DK3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DL3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DM3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DN3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DO3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DP3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DQ3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DR3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DS3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DT3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DU3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DV3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DW3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DX3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DY3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="EC3" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="DC2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="DD2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="DE2" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="DF2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DG2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="DJ2" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="DK2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="DL2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="DM2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="DN2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DO2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="DP2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="DQ2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="DR2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="DS2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="DT2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="DU2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="DV2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="DW2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="DX2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="DY2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="EC2" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="ED2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="EE2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="EG2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="EH2" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="EI2" s="1" t="s">
-        <v>103</v>
+      <c r="ED3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="EE3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="EG3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="EH3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="EI3" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
